--- a/start_kvk.xlsx
+++ b/start_kvk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E004227-A33F-45BF-93BC-FB0A0912E6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F595CB-9F79-4970-80E2-D65940869533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{802CBF10-FC1B-477D-8076-EDD1DE4B1162}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="292">
   <si>
     <t>Governor Name</t>
   </si>
@@ -909,12 +909,6 @@
   </si>
   <si>
     <t>miniATLAS</t>
-  </si>
-  <si>
-    <t>Vali45467514</t>
-  </si>
-  <si>
-    <t>Thống đốc45449474</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1296,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P276"/>
+  <dimension ref="A1:P264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265:XFD276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13270,420 +13264,6 @@
       <c r="O264" s="2"/>
       <c r="P264" s="2"/>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A265" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B265" s="2">
-        <v>45467514</v>
-      </c>
-      <c r="C265" s="2">
-        <v>165742</v>
-      </c>
-      <c r="D265" s="2">
-        <v>1584</v>
-      </c>
-      <c r="E265" s="2">
-        <v>0</v>
-      </c>
-      <c r="F265" s="2">
-        <v>242</v>
-      </c>
-      <c r="G265" s="2">
-        <v>576</v>
-      </c>
-      <c r="H265" s="2">
-        <v>96</v>
-      </c>
-      <c r="I265" s="2"/>
-      <c r="J265" s="2">
-        <v>0</v>
-      </c>
-      <c r="K265" s="2">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2">
-        <v>39</v>
-      </c>
-      <c r="M265" s="2"/>
-      <c r="N265" s="2"/>
-      <c r="O265" s="2"/>
-      <c r="P265" s="2"/>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A266" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B266" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C266" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2">
-        <v>0</v>
-      </c>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2">
-        <v>0</v>
-      </c>
-      <c r="I266" s="2"/>
-      <c r="J266" s="2">
-        <v>0</v>
-      </c>
-      <c r="K266" s="2">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2">
-        <v>51</v>
-      </c>
-      <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
-      <c r="O266" s="2"/>
-      <c r="P266" s="2"/>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A267" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B267" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C267" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2">
-        <v>0</v>
-      </c>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2">
-        <v>0</v>
-      </c>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2">
-        <v>0</v>
-      </c>
-      <c r="K267" s="2">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2">
-        <v>51</v>
-      </c>
-      <c r="M267" s="2"/>
-      <c r="N267" s="2"/>
-      <c r="O267" s="2"/>
-      <c r="P267" s="2"/>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A268" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B268" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C268" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2">
-        <v>0</v>
-      </c>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2">
-        <v>0</v>
-      </c>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2">
-        <v>0</v>
-      </c>
-      <c r="K268" s="2">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2">
-        <v>51</v>
-      </c>
-      <c r="M268" s="2"/>
-      <c r="N268" s="2"/>
-      <c r="O268" s="2"/>
-      <c r="P268" s="2"/>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A269" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B269" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C269" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2">
-        <v>0</v>
-      </c>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2">
-        <v>0</v>
-      </c>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2">
-        <v>0</v>
-      </c>
-      <c r="K269" s="2">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2">
-        <v>51</v>
-      </c>
-      <c r="M269" s="2"/>
-      <c r="N269" s="2"/>
-      <c r="O269" s="2"/>
-      <c r="P269" s="2"/>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A270" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B270" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C270" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2">
-        <v>0</v>
-      </c>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2">
-        <v>0</v>
-      </c>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2">
-        <v>0</v>
-      </c>
-      <c r="K270" s="2">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2">
-        <v>51</v>
-      </c>
-      <c r="M270" s="2"/>
-      <c r="N270" s="2"/>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A271" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B271" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C271" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2">
-        <v>0</v>
-      </c>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2">
-        <v>0</v>
-      </c>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2">
-        <v>0</v>
-      </c>
-      <c r="K271" s="2">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2">
-        <v>51</v>
-      </c>
-      <c r="M271" s="2"/>
-      <c r="N271" s="2"/>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A272" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B272" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C272" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2">
-        <v>0</v>
-      </c>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2">
-        <v>0</v>
-      </c>
-      <c r="I272" s="2"/>
-      <c r="J272" s="2">
-        <v>0</v>
-      </c>
-      <c r="K272" s="2">
-        <v>0</v>
-      </c>
-      <c r="L272" s="2">
-        <v>51</v>
-      </c>
-      <c r="M272" s="2"/>
-      <c r="N272" s="2"/>
-      <c r="O272" s="2"/>
-      <c r="P272" s="2"/>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B273" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C273" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2">
-        <v>0</v>
-      </c>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2">
-        <v>0</v>
-      </c>
-      <c r="I273" s="2"/>
-      <c r="J273" s="2">
-        <v>0</v>
-      </c>
-      <c r="K273" s="2">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2">
-        <v>51</v>
-      </c>
-      <c r="M273" s="2"/>
-      <c r="N273" s="2"/>
-      <c r="O273" s="2"/>
-      <c r="P273" s="2"/>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A274" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B274" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C274" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2">
-        <v>0</v>
-      </c>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2">
-        <v>0</v>
-      </c>
-      <c r="I274" s="2"/>
-      <c r="J274" s="2">
-        <v>0</v>
-      </c>
-      <c r="K274" s="2">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2">
-        <v>51</v>
-      </c>
-      <c r="M274" s="2"/>
-      <c r="N274" s="2"/>
-      <c r="O274" s="2"/>
-      <c r="P274" s="2"/>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A275" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B275" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C275" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2">
-        <v>0</v>
-      </c>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2">
-        <v>0</v>
-      </c>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2">
-        <v>0</v>
-      </c>
-      <c r="K275" s="2">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2">
-        <v>51</v>
-      </c>
-      <c r="M275" s="2"/>
-      <c r="N275" s="2"/>
-      <c r="O275" s="2"/>
-      <c r="P275" s="2"/>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A276" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B276" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C276" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2">
-        <v>0</v>
-      </c>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2">
-        <v>0</v>
-      </c>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2">
-        <v>0</v>
-      </c>
-      <c r="K276" s="2">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2">
-        <v>51</v>
-      </c>
-      <c r="M276" s="2"/>
-      <c r="N276" s="2"/>
-      <c r="O276" s="2"/>
-      <c r="P276" s="2"/>
-    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/start_kvk.xlsx
+++ b/start_kvk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_bot\kd1662\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{972EFBE6-F9A7-4215-9243-54BD7561D66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D492965A-B13D-4E72-8EB7-BF515D330AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{1CE57D95-D701-4F06-86EE-D14B8AAA3EAA}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="293">
   <si>
     <t>Governor Name</t>
   </si>
@@ -912,9 +912,6 @@
   </si>
   <si>
     <t>Vali45467514</t>
-  </si>
-  <si>
-    <t>Thống đốc45449474</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1299,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P276"/>
+  <dimension ref="A1:P265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A266" sqref="A266:XFD276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13310,380 +13307,6 @@
       <c r="O265" s="2"/>
       <c r="P265" s="2"/>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A266" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B266" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C266" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2">
-        <v>0</v>
-      </c>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2">
-        <v>0</v>
-      </c>
-      <c r="I266" s="2"/>
-      <c r="J266" s="2">
-        <v>0</v>
-      </c>
-      <c r="K266" s="2">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2">
-        <v>51</v>
-      </c>
-      <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
-      <c r="O266" s="2"/>
-      <c r="P266" s="2"/>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A267" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B267" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C267" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2">
-        <v>0</v>
-      </c>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2">
-        <v>0</v>
-      </c>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2">
-        <v>0</v>
-      </c>
-      <c r="K267" s="2">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2">
-        <v>51</v>
-      </c>
-      <c r="M267" s="2"/>
-      <c r="N267" s="2"/>
-      <c r="O267" s="2"/>
-      <c r="P267" s="2"/>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A268" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B268" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C268" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2">
-        <v>0</v>
-      </c>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2">
-        <v>0</v>
-      </c>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2">
-        <v>0</v>
-      </c>
-      <c r="K268" s="2">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2">
-        <v>51</v>
-      </c>
-      <c r="M268" s="2"/>
-      <c r="N268" s="2"/>
-      <c r="O268" s="2"/>
-      <c r="P268" s="2"/>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A269" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B269" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C269" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2">
-        <v>0</v>
-      </c>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2">
-        <v>0</v>
-      </c>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2">
-        <v>0</v>
-      </c>
-      <c r="K269" s="2">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2">
-        <v>51</v>
-      </c>
-      <c r="M269" s="2"/>
-      <c r="N269" s="2"/>
-      <c r="O269" s="2"/>
-      <c r="P269" s="2"/>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A270" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B270" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C270" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2">
-        <v>0</v>
-      </c>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2">
-        <v>0</v>
-      </c>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2">
-        <v>0</v>
-      </c>
-      <c r="K270" s="2">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2">
-        <v>51</v>
-      </c>
-      <c r="M270" s="2"/>
-      <c r="N270" s="2"/>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A271" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B271" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C271" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2">
-        <v>0</v>
-      </c>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2">
-        <v>0</v>
-      </c>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2">
-        <v>0</v>
-      </c>
-      <c r="K271" s="2">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2">
-        <v>51</v>
-      </c>
-      <c r="M271" s="2"/>
-      <c r="N271" s="2"/>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A272" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B272" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C272" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2">
-        <v>0</v>
-      </c>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2">
-        <v>0</v>
-      </c>
-      <c r="I272" s="2"/>
-      <c r="J272" s="2">
-        <v>0</v>
-      </c>
-      <c r="K272" s="2">
-        <v>0</v>
-      </c>
-      <c r="L272" s="2">
-        <v>51</v>
-      </c>
-      <c r="M272" s="2"/>
-      <c r="N272" s="2"/>
-      <c r="O272" s="2"/>
-      <c r="P272" s="2"/>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B273" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C273" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2">
-        <v>0</v>
-      </c>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2">
-        <v>0</v>
-      </c>
-      <c r="I273" s="2"/>
-      <c r="J273" s="2">
-        <v>0</v>
-      </c>
-      <c r="K273" s="2">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2">
-        <v>51</v>
-      </c>
-      <c r="M273" s="2"/>
-      <c r="N273" s="2"/>
-      <c r="O273" s="2"/>
-      <c r="P273" s="2"/>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A274" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B274" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C274" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2">
-        <v>0</v>
-      </c>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2">
-        <v>0</v>
-      </c>
-      <c r="I274" s="2"/>
-      <c r="J274" s="2">
-        <v>0</v>
-      </c>
-      <c r="K274" s="2">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2">
-        <v>51</v>
-      </c>
-      <c r="M274" s="2"/>
-      <c r="N274" s="2"/>
-      <c r="O274" s="2"/>
-      <c r="P274" s="2"/>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A275" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B275" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C275" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2">
-        <v>0</v>
-      </c>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2">
-        <v>0</v>
-      </c>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2">
-        <v>0</v>
-      </c>
-      <c r="K275" s="2">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2">
-        <v>51</v>
-      </c>
-      <c r="M275" s="2"/>
-      <c r="N275" s="2"/>
-      <c r="O275" s="2"/>
-      <c r="P275" s="2"/>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A276" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B276" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C276" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2">
-        <v>0</v>
-      </c>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2">
-        <v>0</v>
-      </c>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2">
-        <v>0</v>
-      </c>
-      <c r="K276" s="2">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2">
-        <v>51</v>
-      </c>
-      <c r="M276" s="2"/>
-      <c r="N276" s="2"/>
-      <c r="O276" s="2"/>
-      <c r="P276" s="2"/>
-    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
